--- a/Income/KMB_inc.xlsx
+++ b/Income/KMB_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.3712</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3731</v>
+        <v>0.3686</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.3664</v>
+        <v>0.3619</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3481</v>
+        <v>0.3436</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3317</v>
+        <v>0.3271</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.3185</v>
@@ -4247,16 +4247,16 @@
         <v>0.2287</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.2373</v>
+        <v>0.2334</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2458</v>
+        <v>0.2419</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2293</v>
+        <v>0.2254</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2158</v>
+        <v>0.2118</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2066</v>
